--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893BE08-9D94-4C50-9F83-85949B2B36B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F48F1C-D214-4C15-8F0E-7A6D1EFC44A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="11100" windowHeight="7360" activeTab="5" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2416,45 +2417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2485,6 +2447,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2499,6 +2500,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2516,33 +2544,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7380,132 +7381,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -8217,132 +8218,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -8949,215 +8950,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101" t="str">
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101" t="str">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="80" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="101"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="88" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="85" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="85" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="87"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="92">
+      <c r="A5" s="79">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9167,52 +9168,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="81" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="83"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="94"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="78"/>
@@ -9223,46 +9224,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="83"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="78"/>
@@ -9273,46 +9274,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="83"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="78"/>
@@ -9323,46 +9324,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="83"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="94"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="78"/>
@@ -9373,46 +9374,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="83"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="94"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="78"/>
@@ -9423,46 +9424,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="83"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="94"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="78"/>
@@ -9473,46 +9474,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="83"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="94"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="78"/>
@@ -9523,46 +9524,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="83"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="94"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="78"/>
@@ -9573,46 +9574,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="83"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="94"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="78"/>
@@ -9623,46 +9624,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="83"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="94"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="78"/>
@@ -9673,46 +9674,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="83"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="78"/>
@@ -9723,49 +9724,100 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -9782,57 +9834,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9851,132 +9852,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="24"/>
@@ -15398,132 +15399,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
@@ -16348,18 +16349,28 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -16376,28 +16387,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16411,138 +16412,138 @@
   <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="AN5" sqref="AN5:AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57" t="s">
@@ -16550,15 +16551,15 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="106" t="s">
         <v>263</v>
       </c>
@@ -16569,471 +16570,516 @@
       <c r="M5" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="N5" s="119" t="s">
+      <c r="N5" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="119" t="s">
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="119" t="s">
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="119" t="s">
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="119" t="s">
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="121"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="109"/>
       <c r="AH5" s="61"/>
       <c r="AI5" s="61"/>
       <c r="AJ5" s="61"/>
       <c r="AK5" s="61"/>
       <c r="AL5" s="61"/>
       <c r="AM5" s="61"/>
-      <c r="AN5" s="119" t="s">
+      <c r="AN5" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120"/>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="121"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="109"/>
     </row>
     <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="106"/>
       <c r="I6" s="106"/>
       <c r="J6" s="106"/>
       <c r="K6" s="106"/>
       <c r="L6" s="106"/>
       <c r="M6" s="61"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="109"/>
       <c r="AH6" s="61"/>
       <c r="AI6" s="61"/>
       <c r="AJ6" s="61"/>
       <c r="AK6" s="61"/>
       <c r="AL6" s="61"/>
       <c r="AM6" s="61"/>
-      <c r="AN6" s="119"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120"/>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="121"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="108"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="109"/>
     </row>
     <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="121"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="106"/>
       <c r="I7" s="106"/>
       <c r="J7" s="106"/>
       <c r="K7" s="106"/>
       <c r="L7" s="106"/>
       <c r="M7" s="61"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="121"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="109"/>
       <c r="AH7" s="61"/>
       <c r="AI7" s="61"/>
       <c r="AJ7" s="61"/>
       <c r="AK7" s="61"/>
       <c r="AL7" s="61"/>
       <c r="AM7" s="61"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
-      <c r="AV7" s="121"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="109"/>
     </row>
     <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="106"/>
       <c r="I8" s="106"/>
       <c r="J8" s="106"/>
       <c r="K8" s="106"/>
       <c r="L8" s="106"/>
       <c r="M8" s="61"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="121"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="109"/>
       <c r="AH8" s="61"/>
       <c r="AI8" s="61"/>
       <c r="AJ8" s="61"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="61"/>
       <c r="AM8" s="61"/>
-      <c r="AN8" s="119"/>
-      <c r="AO8" s="120"/>
-      <c r="AP8" s="120"/>
-      <c r="AQ8" s="120"/>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="120"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="120"/>
-      <c r="AV8" s="121"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="109"/>
     </row>
     <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="106"/>
       <c r="I9" s="106"/>
       <c r="J9" s="106"/>
       <c r="K9" s="106"/>
       <c r="L9" s="106"/>
       <c r="M9" s="61"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="121"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="109"/>
       <c r="AH9" s="61"/>
       <c r="AI9" s="61"/>
       <c r="AJ9" s="61"/>
       <c r="AK9" s="61"/>
       <c r="AL9" s="61"/>
       <c r="AM9" s="61"/>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="120"/>
-      <c r="AP9" s="120"/>
-      <c r="AQ9" s="120"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="120"/>
-      <c r="AT9" s="120"/>
-      <c r="AU9" s="120"/>
-      <c r="AV9" s="121"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="109"/>
     </row>
     <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="119"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="106"/>
       <c r="I10" s="106"/>
       <c r="J10" s="106"/>
       <c r="K10" s="106"/>
       <c r="L10" s="106"/>
       <c r="M10" s="61"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="121"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="109"/>
       <c r="AH10" s="61"/>
       <c r="AI10" s="61"/>
       <c r="AJ10" s="61"/>
       <c r="AK10" s="61"/>
       <c r="AL10" s="61"/>
       <c r="AM10" s="61"/>
-      <c r="AN10" s="119"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="121"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="108"/>
+      <c r="AP10" s="108"/>
+      <c r="AQ10" s="108"/>
+      <c r="AR10" s="108"/>
+      <c r="AS10" s="108"/>
+      <c r="AT10" s="108"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="109"/>
     </row>
     <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="119"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="106"/>
       <c r="I11" s="106"/>
       <c r="J11" s="106"/>
       <c r="K11" s="106"/>
       <c r="L11" s="106"/>
       <c r="M11" s="61"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="121"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="109"/>
       <c r="AH11" s="61"/>
       <c r="AI11" s="61"/>
       <c r="AJ11" s="61"/>
       <c r="AK11" s="61"/>
       <c r="AL11" s="61"/>
       <c r="AM11" s="61"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="121"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="108"/>
+      <c r="AQ11" s="108"/>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="108"/>
+      <c r="AT11" s="108"/>
+      <c r="AU11" s="108"/>
+      <c r="AV11" s="109"/>
     </row>
     <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="119"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="106"/>
       <c r="I12" s="106"/>
       <c r="J12" s="106"/>
       <c r="K12" s="106"/>
       <c r="L12" s="106"/>
       <c r="M12" s="61"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="109"/>
       <c r="AH12" s="61"/>
       <c r="AI12" s="61"/>
       <c r="AJ12" s="61"/>
       <c r="AK12" s="61"/>
       <c r="AL12" s="61"/>
       <c r="AM12" s="61"/>
-      <c r="AN12" s="119"/>
-      <c r="AO12" s="120"/>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="120"/>
-      <c r="AR12" s="120"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="120"/>
-      <c r="AU12" s="120"/>
-      <c r="AV12" s="121"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="109"/>
     </row>
     <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="119"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="106"/>
       <c r="I13" s="106"/>
       <c r="J13" s="106"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="61"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="120"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="121"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="109"/>
       <c r="AH13" s="61"/>
       <c r="AI13" s="61"/>
       <c r="AJ13" s="61"/>
       <c r="AK13" s="61"/>
       <c r="AL13" s="61"/>
       <c r="AM13" s="61"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="120"/>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="121"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="108"/>
+      <c r="AP13" s="108"/>
+      <c r="AQ13" s="108"/>
+      <c r="AR13" s="108"/>
+      <c r="AS13" s="108"/>
+      <c r="AT13" s="108"/>
+      <c r="AU13" s="108"/>
+      <c r="AV13" s="109"/>
     </row>
     <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
@@ -17050,62 +17096,17 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17124,132 +17125,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -17532,38 +17533,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="116" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="117"/>
-      <c r="AF40" s="118"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -17918,18 +17919,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="107" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
-      <c r="M68" s="108"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="109"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -17952,16 +17953,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="110"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="111"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="111"/>
-      <c r="N69" s="111"/>
-      <c r="O69" s="112"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -18098,18 +18099,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="107" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="109"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -18132,16 +18133,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="110"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="111"/>
-      <c r="M78" s="111"/>
-      <c r="N78" s="111"/>
-      <c r="O78" s="112"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -18251,6 +18252,19 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -18262,19 +18276,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18293,132 +18294,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -18701,38 +18702,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="116" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="117"/>
-      <c r="AF40" s="118"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -19087,18 +19088,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="107" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
-      <c r="M68" s="108"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="109"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -19121,16 +19122,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="110"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="111"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="111"/>
-      <c r="N69" s="111"/>
-      <c r="O69" s="112"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -19267,18 +19268,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="107" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="109"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -19301,16 +19302,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="110"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="111"/>
-      <c r="M78" s="111"/>
-      <c r="N78" s="111"/>
-      <c r="O78" s="112"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -19420,6 +19421,23 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
     <mergeCell ref="F77:O78"/>
     <mergeCell ref="E43:N43"/>
     <mergeCell ref="O43:AF43"/>
@@ -19427,23 +19445,6 @@
     <mergeCell ref="E45:N45"/>
     <mergeCell ref="O45:AF45"/>
     <mergeCell ref="F68:O69"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19462,132 +19463,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -19870,38 +19871,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="116" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="117"/>
-      <c r="AF40" s="118"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -20256,18 +20257,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="107" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
-      <c r="M68" s="108"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="109"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -20290,16 +20291,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="110"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="111"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="111"/>
-      <c r="N69" s="111"/>
-      <c r="O69" s="112"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -20436,18 +20437,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="107" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="109"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -20470,16 +20471,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="110"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="111"/>
-      <c r="M78" s="111"/>
-      <c r="N78" s="111"/>
-      <c r="O78" s="112"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -20589,6 +20590,23 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
     <mergeCell ref="F77:O78"/>
     <mergeCell ref="E43:N43"/>
     <mergeCell ref="O43:AF43"/>
@@ -20596,23 +20614,6 @@
     <mergeCell ref="E45:N45"/>
     <mergeCell ref="O45:AF45"/>
     <mergeCell ref="F68:O69"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F48F1C-D214-4C15-8F0E-7A6D1EFC44A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B27E6-7354-495E-82A2-29E67E070D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="11100" windowHeight="7360" activeTab="5" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="272">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2417,6 +2416,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2447,45 +2485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2510,24 +2509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2544,6 +2525,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7381,132 +7380,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -8218,132 +8217,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -8950,215 +8949,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88" t="str">
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88" t="str">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="93" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="96" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="89" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="89" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="87"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="79">
+      <c r="A5" s="92">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9168,52 +9167,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="92" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="92" t="s">
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="83"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="78"/>
@@ -9224,46 +9223,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="83"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="78"/>
@@ -9274,46 +9273,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="83"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="78"/>
@@ -9324,46 +9323,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="94"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="83"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="78"/>
@@ -9374,46 +9373,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="94"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="83"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="78"/>
@@ -9424,46 +9423,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="94"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="83"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="78"/>
@@ -9474,46 +9473,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="94"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="83"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="78"/>
@@ -9524,46 +9523,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="94"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="83"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="78"/>
@@ -9574,46 +9573,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="83"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="78"/>
@@ -9624,46 +9623,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="83"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="78"/>
@@ -9674,46 +9673,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="83"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="78"/>
@@ -9724,78 +9723,71 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -9812,28 +9804,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9852,132 +9851,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="24"/>
@@ -15399,132 +15398,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
@@ -16349,6 +16348,40 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -16365,40 +16398,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16412,138 +16411,138 @@
   <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5:AV5"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57" t="s">
@@ -16650,7 +16649,9 @@
       <c r="AA6" s="108"/>
       <c r="AB6" s="108"/>
       <c r="AC6" s="109"/>
-      <c r="AD6" s="107"/>
+      <c r="AD6" s="107" t="s">
+        <v>270</v>
+      </c>
       <c r="AE6" s="108"/>
       <c r="AF6" s="108"/>
       <c r="AG6" s="109"/>
@@ -17024,17 +17025,62 @@
     <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -17049,64 +17095,19 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17125,132 +17126,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -17533,38 +17534,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -17613,26 +17614,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="103" t="s">
@@ -17647,26 +17648,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="50" t="s">
@@ -17919,18 +17920,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -17953,16 +17954,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -18099,18 +18100,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -18133,16 +18134,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -18252,19 +18253,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -18276,6 +18264,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18294,132 +18295,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -18702,38 +18703,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -18782,26 +18783,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="103" t="s">
@@ -18816,26 +18817,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="58" t="s">
@@ -19088,18 +19089,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -19122,16 +19123,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -19268,18 +19269,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -19302,16 +19303,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -19421,13 +19422,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -19438,13 +19439,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19463,132 +19464,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -19871,38 +19872,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -19951,26 +19952,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="103" t="s">
@@ -19985,26 +19986,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="58" t="s">
@@ -20257,18 +20258,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -20291,16 +20292,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -20437,18 +20438,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -20471,16 +20472,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -20590,13 +20591,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20607,13 +20608,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B27E6-7354-495E-82A2-29E67E070D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3C9A2-D106-4D46-A140-3F0926DD9965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="2810" yWindow="670" windowWidth="11100" windowHeight="7360" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面項目!$A$1:$AV$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面表示時!$A$1:$AV$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$125</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$130</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="283">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1657,6 +1657,101 @@
   </si>
   <si>
     <t>♦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓signup処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>races</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一</t>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター単一→race, geneを設定した状態で登録</t>
+    <rPh sb="6" eb="8">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可能</t>
+    <rPh sb="0" eb="3">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター複数→geneステータスを入力した状態で登録、gene_idは空</t>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genes,races単一→それぞれの専用ボタンから登録</t>
+    <rPh sb="11" eb="13">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2416,45 +2511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2485,6 +2541,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2509,6 +2604,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2525,24 +2638,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7380,132 +7475,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -8217,132 +8312,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -8949,215 +9044,215 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101" t="str">
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101" t="str">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="80" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="101"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="88" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="85" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="85" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="87"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="92">
+      <c r="A5" s="79">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9167,52 +9262,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="81" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="83"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="94"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="78"/>
@@ -9223,46 +9318,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="83"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="78"/>
@@ -9273,46 +9368,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="83"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="78"/>
@@ -9323,46 +9418,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="83"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="94"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="78"/>
@@ -9373,46 +9468,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="83"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="94"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="78"/>
@@ -9423,46 +9518,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="83"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="94"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="78"/>
@@ -9473,46 +9568,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="83"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="94"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="78"/>
@@ -9523,46 +9618,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="83"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="94"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="78"/>
@@ -9573,46 +9668,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="83"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="94"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="78"/>
@@ -9623,46 +9718,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="83"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="94"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="78"/>
@@ -9673,46 +9768,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="83"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="78"/>
@@ -9723,49 +9818,100 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -9782,57 +9928,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9842,141 +9937,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
-  <dimension ref="A1:AV119"/>
+  <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T125" sqref="T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="24"/>
@@ -14870,6 +14965,61 @@
         <v>190</v>
       </c>
     </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="G122" t="s">
+        <v>276</v>
+      </c>
+      <c r="J122" t="s">
+        <v>277</v>
+      </c>
+      <c r="M122" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" t="s">
+        <v>278</v>
+      </c>
+      <c r="J123" t="s">
+        <v>278</v>
+      </c>
+      <c r="M123" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124" t="s">
+        <v>274</v>
+      </c>
+      <c r="G124" t="s">
+        <v>278</v>
+      </c>
+      <c r="J124" t="s">
+        <v>278</v>
+      </c>
+      <c r="M124" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C125" t="s">
+        <v>275</v>
+      </c>
+      <c r="G125" t="s">
+        <v>278</v>
+      </c>
+      <c r="J125" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -14895,7 +15045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -15398,132 +15550,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
@@ -16348,18 +16500,28 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -16376,28 +16538,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16410,139 +16562,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC096941-97E1-4C3D-97B7-14C784CE5F29}">
   <dimension ref="A1:AV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57" t="s">
@@ -16649,9 +16801,7 @@
       <c r="AA6" s="108"/>
       <c r="AB6" s="108"/>
       <c r="AC6" s="109"/>
-      <c r="AD6" s="107" t="s">
-        <v>270</v>
-      </c>
+      <c r="AD6" s="107"/>
       <c r="AE6" s="108"/>
       <c r="AF6" s="108"/>
       <c r="AG6" s="109"/>
@@ -17025,17 +17175,62 @@
     <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -17052,62 +17247,17 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17119,139 +17269,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91435FB5-23B6-4319-B205-FB0A6A4D7936}">
   <dimension ref="A1:AV90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -17534,38 +17684,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -17614,26 +17764,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="103" t="s">
@@ -17648,26 +17798,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="50" t="s">
@@ -17920,18 +18070,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -17954,16 +18104,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -18100,18 +18250,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -18134,16 +18284,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -18253,6 +18403,19 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -18264,19 +18427,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18295,132 +18445,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -18703,38 +18853,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -18783,26 +18933,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="103" t="s">
@@ -18817,26 +18967,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="58" t="s">
@@ -19089,18 +19239,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -19123,16 +19273,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -19269,18 +19419,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -19303,16 +19453,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -19422,13 +19572,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -19439,13 +19589,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19464,132 +19614,132 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23"/>
@@ -19872,38 +20022,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="103" t="s">
@@ -19952,26 +20102,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="103" t="s">
@@ -19986,26 +20136,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="58" t="s">
@@ -20258,18 +20408,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -20292,16 +20442,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -20438,18 +20588,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -20472,16 +20622,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -20591,13 +20741,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20608,13 +20758,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3C9A2-D106-4D46-A140-3F0926DD9965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94EDDCA-ECD3-4117-8BDF-30F0065485FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2810" yWindow="670" windowWidth="11100" windowHeight="7360" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -9939,8 +9939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
   <dimension ref="A1:AV125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T125" sqref="T125"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94EDDCA-ECD3-4117-8BDF-30F0065485FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52505C-AAAE-4CF5-B79F-CA9DE19DE62D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="30960" yWindow="0" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -6456,12 +6456,12 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="102" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="25" max="25" width="3.08203125" customWidth="1"/>
+    <col min="25" max="25" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6511,7 +6511,7 @@
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6561,7 +6561,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6625,7 +6625,7 @@
       <c r="BF3" s="78"/>
       <c r="BG3" s="78"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6689,7 +6689,7 @@
       <c r="BF4" s="78"/>
       <c r="BG4" s="78"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6739,7 +6739,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6789,7 +6789,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="1:59" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:59" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6842,7 +6842,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="1:59" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:59" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6895,7 +6895,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6945,7 +6945,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6995,7 +6995,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7051,7 +7051,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7101,7 +7101,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7151,7 +7151,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7201,7 +7201,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7251,7 +7251,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7301,7 +7301,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7351,7 +7351,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7401,7 +7401,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7472,9 +7472,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
@@ -7537,7 +7537,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -7602,7 +7602,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -7652,7 +7652,7 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -7704,8 +7704,8 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7757,7 +7757,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7807,7 +7807,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7859,7 +7859,7 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
     </row>
-    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D10" s="34"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="AP10" s="28"/>
     </row>
-    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D11" s="34"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -7878,7 +7878,7 @@
       <c r="H11" s="36"/>
       <c r="AP11" s="28"/>
     </row>
-    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="31" t="s">
         <v>40</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="AO12" s="32"/>
       <c r="AP12" s="33"/>
     </row>
-    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="AP13" s="28"/>
     </row>
-    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="AP14" s="28"/>
     </row>
-    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
@@ -7996,9 +7996,9 @@
       <c r="AO15" s="29"/>
       <c r="AP15" s="30"/>
     </row>
-    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8050,7 +8050,7 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
     </row>
-    <row r="19" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8100,7 +8100,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
     </row>
-    <row r="20" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8152,7 +8152,7 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
     </row>
-    <row r="21" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -8171,7 +8171,7 @@
       <c r="H22" s="36"/>
       <c r="AP22" s="28"/>
     </row>
-    <row r="23" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D23" s="31" t="s">
         <v>40</v>
       </c>
@@ -8214,7 +8214,7 @@
       <c r="AO23" s="32"/>
       <c r="AP23" s="33"/>
     </row>
-    <row r="24" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="AP24" s="28"/>
     </row>
-    <row r="25" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
@@ -8272,15 +8272,15 @@
       <c r="AO25" s="29"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -8309,9 +8309,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
@@ -8374,7 +8374,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -8439,7 +8439,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -8489,8 +8489,8 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -8542,7 +8542,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8592,7 +8592,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8644,7 +8644,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D9" s="34"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="AP9" s="28"/>
     </row>
-    <row r="10" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D10" s="34"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="AP10" s="28"/>
     </row>
-    <row r="11" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D11" s="34"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="AP11" s="28"/>
     </row>
-    <row r="12" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="AP12" s="28"/>
     </row>
-    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="AP13" s="28"/>
     </row>
-    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="AP14" s="28"/>
     </row>
-    <row r="15" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="AP15" s="28"/>
     </row>
-    <row r="16" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="AP16" s="28"/>
     </row>
-    <row r="17" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D17" s="34"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="AP17" s="28"/>
     </row>
-    <row r="18" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="AP18" s="28"/>
     </row>
-    <row r="19" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
@@ -8792,7 +8792,7 @@
       <c r="H19" s="36"/>
       <c r="AP19" s="28"/>
     </row>
-    <row r="20" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="31" t="s">
         <v>39</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="AO20" s="32"/>
       <c r="AP20" s="33"/>
     </row>
-    <row r="21" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="AP22" s="28"/>
     </row>
-    <row r="23" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -8898,7 +8898,7 @@
       <c r="AO23" s="29"/>
       <c r="AP23" s="30"/>
     </row>
-    <row r="24" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="31" t="s">
         <v>40</v>
       </c>
@@ -8941,7 +8941,7 @@
       <c r="AO24" s="32"/>
       <c r="AP24" s="33"/>
     </row>
-    <row r="25" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="AP25" s="28"/>
     </row>
-    <row r="26" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="AP26" s="28"/>
     </row>
-    <row r="27" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
@@ -9004,15 +9004,15 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="30"/>
     </row>
-    <row r="28" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -9041,9 +9041,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
@@ -9106,7 +9106,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -9181,7 +9181,7 @@
       <c r="BF2" s="101"/>
       <c r="BG2" s="101"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.4">
       <c r="AX3" s="100"/>
       <c r="AY3" s="100"/>
       <c r="AZ3" s="100"/>
@@ -9193,7 +9193,7 @@
       <c r="BF3" s="101"/>
       <c r="BG3" s="101"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
@@ -9251,7 +9251,7 @@
       <c r="AU4" s="90"/>
       <c r="AV4" s="91"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="79">
         <v>43933</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="AU5" s="93"/>
       <c r="AV5" s="94"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="78"/>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -9359,7 +9359,7 @@
       <c r="AU6" s="93"/>
       <c r="AV6" s="94"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -9409,7 +9409,7 @@
       <c r="AU7" s="93"/>
       <c r="AV7" s="94"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -9459,7 +9459,7 @@
       <c r="AU8" s="93"/>
       <c r="AV8" s="94"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="78"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -9509,7 +9509,7 @@
       <c r="AU9" s="93"/>
       <c r="AV9" s="94"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="78"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
@@ -9559,7 +9559,7 @@
       <c r="AU10" s="93"/>
       <c r="AV10" s="94"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
@@ -9609,7 +9609,7 @@
       <c r="AU11" s="93"/>
       <c r="AV11" s="94"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="78"/>
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
@@ -9659,7 +9659,7 @@
       <c r="AU12" s="93"/>
       <c r="AV12" s="94"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="78"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
@@ -9709,7 +9709,7 @@
       <c r="AU13" s="93"/>
       <c r="AV13" s="94"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="78"/>
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
@@ -9759,7 +9759,7 @@
       <c r="AU14" s="93"/>
       <c r="AV14" s="94"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="78"/>
       <c r="B15" s="78"/>
       <c r="C15" s="78"/>
@@ -9809,7 +9809,7 @@
       <c r="AU15" s="93"/>
       <c r="AV15" s="94"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="78"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
@@ -9943,9 +9943,9 @@
       <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
@@ -10008,7 +10008,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -10073,7 +10073,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="49" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:48" s="49" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="24"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -10123,7 +10123,7 @@
       <c r="AU4" s="51"/>
       <c r="AV4" s="52"/>
     </row>
-    <row r="5" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="AU5" s="11"/>
       <c r="AV5" s="12"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10227,7 +10227,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="14"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -10277,7 +10277,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="14"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10327,7 +10327,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="14"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10377,7 +10377,7 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="14"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -10429,7 +10429,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="14"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -10481,7 +10481,7 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="14"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10531,7 +10531,7 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="14"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10583,7 +10583,7 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="14"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10635,7 +10635,7 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="14"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10687,7 +10687,7 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="14"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10739,7 +10739,7 @@
       <c r="AU16" s="1"/>
       <c r="AV16" s="14"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10791,7 +10791,7 @@
       <c r="AU17" s="1"/>
       <c r="AV17" s="14"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10843,7 +10843,7 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="14"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10893,7 +10893,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="14"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10943,7 +10943,7 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="14"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10993,7 +10993,7 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="14"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -11043,7 +11043,7 @@
       <c r="AU22" s="1"/>
       <c r="AV22" s="14"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -11093,7 +11093,7 @@
       <c r="AU23" s="1"/>
       <c r="AV23" s="14"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -11143,7 +11143,7 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="14"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -11193,7 +11193,7 @@
       <c r="AU25" s="1"/>
       <c r="AV25" s="14"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -11243,7 +11243,7 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="14"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -11293,7 +11293,7 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="14"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11343,7 +11343,7 @@
       <c r="AU28" s="1"/>
       <c r="AV28" s="14"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -11393,7 +11393,7 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="14"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11443,7 +11443,7 @@
       <c r="AU30" s="1"/>
       <c r="AV30" s="14"/>
     </row>
-    <row r="31" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11493,7 +11493,7 @@
       <c r="AU31" s="1"/>
       <c r="AV31" s="14"/>
     </row>
-    <row r="32" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="13"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11543,7 +11543,7 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="14"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11593,7 +11593,7 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="14"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A34" s="13"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11643,7 +11643,7 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="14"/>
     </row>
-    <row r="35" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11693,7 +11693,7 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="14"/>
     </row>
-    <row r="36" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11743,7 +11743,7 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="14"/>
     </row>
-    <row r="37" spans="1:48" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:48" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -11793,7 +11793,7 @@
       <c r="AU37" s="16"/>
       <c r="AV37" s="17"/>
     </row>
-    <row r="38" spans="1:48" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>56</v>
       </c>
@@ -11847,7 +11847,7 @@
       <c r="AU38" s="11"/>
       <c r="AV38" s="12"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A39" s="13"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11897,7 +11897,7 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="14"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A40" s="13"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11949,7 +11949,7 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="14"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -12003,7 +12003,7 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="14"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A42" s="13"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -12053,7 +12053,7 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="14"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -12105,7 +12105,7 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="14"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A44" s="13"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -12159,7 +12159,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="14"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -12211,7 +12211,7 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="14"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A46" s="13"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -12263,7 +12263,7 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="14"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -12317,7 +12317,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="14"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A48" s="13"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -12369,7 +12369,7 @@
       <c r="AU48" s="1"/>
       <c r="AV48" s="14"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A49" s="13"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -12421,7 +12421,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="14"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A50" s="13"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -12475,7 +12475,7 @@
       <c r="AU50" s="1"/>
       <c r="AV50" s="14"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A51" s="13"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -12527,7 +12527,7 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="14"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -12579,7 +12579,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="14"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -12633,7 +12633,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="14"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -12685,7 +12685,7 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="14"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -12737,7 +12737,7 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="14"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -12789,7 +12789,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="14"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A57" s="13"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -12841,7 +12841,7 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="14"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -12893,7 +12893,7 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="14"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A59" s="13"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -12945,7 +12945,7 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="14"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A60" s="13"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -12997,7 +12997,7 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="14"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A61" s="13"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -13049,7 +13049,7 @@
       <c r="AU61" s="1"/>
       <c r="AV61" s="14"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A62" s="13"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -13101,7 +13101,7 @@
       <c r="AU62" s="1"/>
       <c r="AV62" s="14"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A63" s="13"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -13151,7 +13151,7 @@
       <c r="AU63" s="1"/>
       <c r="AV63" s="14"/>
     </row>
-    <row r="64" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="13"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -13203,7 +13203,7 @@
       <c r="AU64" s="1"/>
       <c r="AV64" s="14"/>
     </row>
-    <row r="65" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="13"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -13255,7 +13255,7 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="14"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A66" s="13"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -13307,7 +13307,7 @@
       <c r="AU66" s="1"/>
       <c r="AV66" s="14"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A67" s="13"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -13359,7 +13359,7 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="14"/>
     </row>
-    <row r="68" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="13"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -13411,7 +13411,7 @@
       <c r="AU68" s="1"/>
       <c r="AV68" s="14"/>
     </row>
-    <row r="69" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="13"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -13461,7 +13461,7 @@
       <c r="AU69" s="1"/>
       <c r="AV69" s="14"/>
     </row>
-    <row r="70" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>78</v>
@@ -13515,7 +13515,7 @@
       <c r="AU70" s="1"/>
       <c r="AV70" s="14"/>
     </row>
-    <row r="71" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="13"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -13567,7 +13567,7 @@
       <c r="AU71" s="1"/>
       <c r="AV71" s="14"/>
     </row>
-    <row r="72" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="13"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -13619,7 +13619,7 @@
       <c r="AU72" s="1"/>
       <c r="AV72" s="14"/>
     </row>
-    <row r="73" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="13"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -13669,7 +13669,7 @@
       <c r="AU73" s="1"/>
       <c r="AV73" s="14"/>
     </row>
-    <row r="74" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="13"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -13719,7 +13719,7 @@
       <c r="AU74" s="1"/>
       <c r="AV74" s="14"/>
     </row>
-    <row r="75" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="13"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -13769,7 +13769,7 @@
       <c r="AU75" s="1"/>
       <c r="AV75" s="14"/>
     </row>
-    <row r="76" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="13"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -13819,7 +13819,7 @@
       <c r="AU76" s="1"/>
       <c r="AV76" s="14"/>
     </row>
-    <row r="77" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -13869,7 +13869,7 @@
       <c r="AU77" s="16"/>
       <c r="AV77" s="17"/>
     </row>
-    <row r="78" spans="1:48" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:48" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -13919,7 +13919,7 @@
       <c r="AU78" s="18"/>
       <c r="AV78" s="19"/>
     </row>
-    <row r="79" spans="1:48" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:48" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="20" t="s">
         <v>11</v>
       </c>
@@ -13971,7 +13971,7 @@
       <c r="AU79" s="1"/>
       <c r="AV79" s="1"/>
     </row>
-    <row r="80" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -14021,7 +14021,7 @@
       <c r="AU80" s="1"/>
       <c r="AV80" s="1"/>
     </row>
-    <row r="81" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>73</v>
@@ -14073,7 +14073,7 @@
       <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
     </row>
-    <row r="82" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>74</v>
@@ -14125,7 +14125,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -14175,7 +14175,7 @@
       <c r="AU83" s="1"/>
       <c r="AV83" s="1"/>
     </row>
-    <row r="84" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -14227,7 +14227,7 @@
       <c r="AU84" s="1"/>
       <c r="AV84" s="1"/>
     </row>
-    <row r="85" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -14287,7 +14287,7 @@
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
     </row>
-    <row r="86" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -14353,7 +14353,7 @@
       <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
     </row>
-    <row r="87" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -14417,7 +14417,7 @@
       <c r="AU87" s="1"/>
       <c r="AV87" s="1"/>
     </row>
-    <row r="88" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -14479,7 +14479,7 @@
       <c r="AU88" s="1"/>
       <c r="AV88" s="1"/>
     </row>
-    <row r="89" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -14541,7 +14541,7 @@
       <c r="AU89" s="1"/>
       <c r="AV89" s="1"/>
     </row>
-    <row r="90" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -14603,7 +14603,7 @@
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
     </row>
-    <row r="91" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -14653,7 +14653,7 @@
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
     </row>
-    <row r="92" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>75</v>
@@ -14705,7 +14705,7 @@
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
     </row>
-    <row r="93" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>76</v>
@@ -14757,7 +14757,7 @@
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A94" s="49"/>
       <c r="B94" s="49" t="s">
         <v>77</v>
@@ -14809,12 +14809,12 @@
       <c r="AU94" s="49"/>
       <c r="AV94" s="49"/>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>158</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>160</v>
       </c>
@@ -14851,32 +14851,32 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>172</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>165</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I108" t="s">
         <v>174</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I109" t="s">
         <v>175</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I110" t="s">
         <v>176</v>
       </c>
@@ -14919,12 +14919,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I111" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.4">
       <c r="I112" t="s">
         <v>177</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I113" t="s">
         <v>178</v>
       </c>
@@ -14940,37 +14940,37 @@
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I114" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I115" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G122" t="s">
         <v>276</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
         <v>273</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
         <v>274</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
         <v>275</v>
       </c>
@@ -15049,19 +15049,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:37" ht="36" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
         <v>101</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -15213,7 +15213,7 @@
       <c r="AJ5" s="45"/>
       <c r="AK5" s="45"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -15326,12 +15326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:37" ht="36" x14ac:dyDescent="0.4">
       <c r="A9" s="42" t="s">
         <v>136</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="44" t="s">
         <v>151</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:37" ht="36" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
         <v>101</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="44" t="s">
         <v>151</v>
       </c>
@@ -15547,9 +15547,9 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
@@ -15612,7 +15612,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -15677,12 +15677,12 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="103" t="s">
         <v>22</v>
       </c>
@@ -15736,7 +15736,7 @@
       <c r="AU5" s="104"/>
       <c r="AV5" s="105"/>
     </row>
-    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -15790,13 +15790,13 @@
       <c r="AU6" s="104"/>
       <c r="AV6" s="105"/>
     </row>
-    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="102" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="AU9" s="102"/>
       <c r="AV9" s="102"/>
     </row>
-    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="102" t="s">
         <v>30</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="AU10" s="104"/>
       <c r="AV10" s="105"/>
     </row>
-    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="102" t="s">
         <v>33</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="AU11" s="104"/>
       <c r="AV11" s="105"/>
     </row>
-    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="102" t="s">
         <v>44</v>
       </c>
@@ -16020,7 +16020,7 @@
       <c r="AU12" s="104"/>
       <c r="AV12" s="105"/>
     </row>
-    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="102" t="s">
         <v>47</v>
       </c>
@@ -16076,7 +16076,7 @@
       <c r="AU13" s="104"/>
       <c r="AV13" s="105"/>
     </row>
-    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="102" t="s">
         <v>48</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="AU14" s="104"/>
       <c r="AV14" s="105"/>
     </row>
-    <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="102"/>
       <c r="B15" s="102"/>
       <c r="C15" s="102"/>
@@ -16182,7 +16182,7 @@
       <c r="AU15" s="104"/>
       <c r="AV15" s="105"/>
     </row>
-    <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="102"/>
       <c r="B16" s="102"/>
       <c r="C16" s="102"/>
@@ -16232,7 +16232,7 @@
       <c r="AU16" s="104"/>
       <c r="AV16" s="105"/>
     </row>
-    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="102"/>
       <c r="B17" s="102"/>
       <c r="C17" s="102"/>
@@ -16282,13 +16282,13 @@
       <c r="AU17" s="104"/>
       <c r="AV17" s="105"/>
     </row>
-    <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="103" t="s">
         <v>17</v>
       </c>
@@ -16342,7 +16342,7 @@
       <c r="AU20" s="104"/>
       <c r="AV20" s="105"/>
     </row>
-    <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="103" t="s">
         <v>36</v>
       </c>
@@ -16396,7 +16396,7 @@
       <c r="AU21" s="104"/>
       <c r="AV21" s="105"/>
     </row>
-    <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="103"/>
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
@@ -16446,7 +16446,7 @@
       <c r="AU22" s="104"/>
       <c r="AV22" s="105"/>
     </row>
-    <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="103"/>
       <c r="B23" s="104"/>
       <c r="C23" s="104"/>
@@ -16496,8 +16496,8 @@
       <c r="AU23" s="104"/>
       <c r="AV23" s="105"/>
     </row>
-    <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
     <mergeCell ref="I2:P2"/>
@@ -16566,9 +16566,9 @@
       <selection activeCell="AD6" sqref="AD6:AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
@@ -16631,7 +16631,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -16696,12 +16696,12 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="107" t="s">
         <v>262</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="AU5" s="108"/>
       <c r="AV5" s="109"/>
     </row>
-    <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="107" t="s">
         <v>271</v>
       </c>
@@ -16821,7 +16821,7 @@
       <c r="AU6" s="108"/>
       <c r="AV6" s="109"/>
     </row>
-    <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="107"/>
       <c r="B7" s="108"/>
       <c r="C7" s="108"/>
@@ -16871,7 +16871,7 @@
       <c r="AU7" s="108"/>
       <c r="AV7" s="109"/>
     </row>
-    <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="107"/>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -16921,7 +16921,7 @@
       <c r="AU8" s="108"/>
       <c r="AV8" s="109"/>
     </row>
-    <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="107"/>
       <c r="B9" s="108"/>
       <c r="C9" s="108"/>
@@ -16971,7 +16971,7 @@
       <c r="AU9" s="108"/>
       <c r="AV9" s="109"/>
     </row>
-    <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="107"/>
       <c r="B10" s="108"/>
       <c r="C10" s="108"/>
@@ -17021,7 +17021,7 @@
       <c r="AU10" s="108"/>
       <c r="AV10" s="109"/>
     </row>
-    <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="107"/>
       <c r="B11" s="108"/>
       <c r="C11" s="108"/>
@@ -17071,7 +17071,7 @@
       <c r="AU11" s="108"/>
       <c r="AV11" s="109"/>
     </row>
-    <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="107"/>
       <c r="B12" s="108"/>
       <c r="C12" s="108"/>
@@ -17121,7 +17121,7 @@
       <c r="AU12" s="108"/>
       <c r="AV12" s="109"/>
     </row>
-    <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="107"/>
       <c r="B13" s="108"/>
       <c r="C13" s="108"/>
@@ -17171,8 +17171,8 @@
       <c r="AU13" s="108"/>
       <c r="AV13" s="109"/>
     </row>
-    <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="83">
     <mergeCell ref="AO2:AV2"/>
@@ -17273,9 +17273,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
@@ -17338,7 +17338,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -17403,7 +17403,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -17453,19 +17453,19 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C5" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E9" s="26" t="s">
         <v>26</v>
       </c>
@@ -17473,29 +17473,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E14" s="49" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AA15" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E16" s="26" t="s">
         <v>27</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E17" s="26" t="s">
         <v>28</v>
       </c>
@@ -17511,8 +17511,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D19" s="31" t="s">
         <v>40</v>
       </c>
@@ -17555,7 +17555,7 @@
       <c r="AO19" s="32"/>
       <c r="AP19" s="33"/>
     </row>
-    <row r="20" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="AP20" s="28"/>
     </row>
-    <row r="21" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -17630,60 +17630,60 @@
       <c r="AO22" s="29"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="46" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E26" s="46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E27" s="46" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C29" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D31" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" spans="4:32" s="46" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="4:32" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E33" s="46" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E34" s="49" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D36" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E38" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
@@ -17717,7 +17717,7 @@
       <c r="AE40" s="111"/>
       <c r="AF40" s="112"/>
     </row>
-    <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
         <v>219</v>
       </c>
@@ -17751,7 +17751,7 @@
       <c r="AE41" s="104"/>
       <c r="AF41" s="105"/>
     </row>
-    <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E42" s="103" t="s">
         <v>220</v>
       </c>
@@ -17785,7 +17785,7 @@
       <c r="AE42" s="114"/>
       <c r="AF42" s="115"/>
     </row>
-    <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
         <v>221</v>
       </c>
@@ -17819,7 +17819,7 @@
       <c r="AE43" s="114"/>
       <c r="AF43" s="115"/>
     </row>
-    <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="50" t="s">
         <v>222</v>
       </c>
@@ -17853,7 +17853,7 @@
       <c r="AE44" s="104"/>
       <c r="AF44" s="105"/>
     </row>
-    <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E45" s="103" t="s">
         <v>223</v>
       </c>
@@ -17887,21 +17887,21 @@
       <c r="AE45" s="104"/>
       <c r="AF45" s="105"/>
     </row>
-    <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="48" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D48" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="50" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E50" s="26" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="52" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E52" s="54" t="s">
         <v>246</v>
       </c>
@@ -17935,14 +17935,14 @@
       <c r="AE52" s="65"/>
       <c r="AF52" s="66"/>
     </row>
-    <row r="53" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="54" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E54" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="56" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E56" s="54" t="s">
         <v>226</v>
       </c>
@@ -17976,7 +17976,7 @@
       <c r="AE56" s="65"/>
       <c r="AF56" s="66"/>
     </row>
-    <row r="57" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E57" s="54" t="s">
         <v>229</v>
       </c>
@@ -18010,32 +18010,32 @@
       <c r="AE57" s="67"/>
       <c r="AF57" s="68"/>
     </row>
-    <row r="58" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="59" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="60" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D62" s="49" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E64" s="49" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F66" s="49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F67" s="54" t="s">
         <v>226</v>
       </c>
@@ -18069,7 +18069,7 @@
       <c r="AF67" s="65"/>
       <c r="AG67" s="66"/>
     </row>
-    <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
@@ -18103,7 +18103,7 @@
       <c r="AF68" s="65"/>
       <c r="AG68" s="66"/>
     </row>
-    <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F69" s="119"/>
       <c r="G69" s="120"/>
       <c r="H69" s="120"/>
@@ -18135,7 +18135,7 @@
       <c r="AF69" s="65"/>
       <c r="AG69" s="66"/>
     </row>
-    <row r="70" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F70" s="54" t="s">
         <v>229</v>
       </c>
@@ -18169,7 +18169,7 @@
       <c r="AF70" s="67"/>
       <c r="AG70" s="68"/>
     </row>
-    <row r="71" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F71" s="54" t="s">
         <v>230</v>
       </c>
@@ -18203,19 +18203,19 @@
       <c r="AF71" s="67"/>
       <c r="AG71" s="68"/>
     </row>
-    <row r="72" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E73" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F75" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F76" s="54" t="s">
         <v>226</v>
       </c>
@@ -18249,7 +18249,7 @@
       <c r="AF76" s="65"/>
       <c r="AG76" s="66"/>
     </row>
-    <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="AF77" s="65"/>
       <c r="AG77" s="66"/>
     </row>
-    <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F78" s="119"/>
       <c r="G78" s="120"/>
       <c r="H78" s="120"/>
@@ -18315,7 +18315,7 @@
       <c r="AF78" s="65"/>
       <c r="AG78" s="66"/>
     </row>
-    <row r="79" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F79" s="54" t="s">
         <v>229</v>
       </c>
@@ -18349,7 +18349,7 @@
       <c r="AF79" s="67"/>
       <c r="AG79" s="68"/>
     </row>
-    <row r="80" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F80" s="54" t="s">
         <v>230</v>
       </c>
@@ -18383,24 +18383,24 @@
       <c r="AF80" s="67"/>
       <c r="AG80" s="68"/>
     </row>
-    <row r="81" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="82" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D82" s="49" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E84" s="49" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="87" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="88" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="89" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="86" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="88" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="F77:O78"/>
@@ -18442,9 +18442,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
@@ -18507,7 +18507,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -18572,7 +18572,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -18622,19 +18622,19 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C5" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D7" s="57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E9" s="57" t="s">
         <v>26</v>
       </c>
@@ -18642,29 +18642,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E10" s="57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E14" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AA15" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E16" s="57" t="s">
         <v>27</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E17" s="57" t="s">
         <v>28</v>
       </c>
@@ -18680,8 +18680,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D19" s="71" t="s">
         <v>40</v>
       </c>
@@ -18724,7 +18724,7 @@
       <c r="AO19" s="72"/>
       <c r="AP19" s="73"/>
     </row>
-    <row r="20" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="AP20" s="28"/>
     </row>
-    <row r="21" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="74"/>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
@@ -18799,60 +18799,60 @@
       <c r="AO22" s="29"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="57" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E26" s="57" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E27" s="57" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C29" s="57" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D31" s="57" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E33" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E34" s="57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D36" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E38" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
@@ -18886,7 +18886,7 @@
       <c r="AE40" s="111"/>
       <c r="AF40" s="112"/>
     </row>
-    <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
         <v>219</v>
       </c>
@@ -18920,7 +18920,7 @@
       <c r="AE41" s="104"/>
       <c r="AF41" s="105"/>
     </row>
-    <row r="42" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E42" s="103" t="s">
         <v>220</v>
       </c>
@@ -18954,7 +18954,7 @@
       <c r="AE42" s="114"/>
       <c r="AF42" s="115"/>
     </row>
-    <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
         <v>221</v>
       </c>
@@ -18988,7 +18988,7 @@
       <c r="AE43" s="114"/>
       <c r="AF43" s="115"/>
     </row>
-    <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
         <v>222</v>
       </c>
@@ -19022,7 +19022,7 @@
       <c r="AE44" s="104"/>
       <c r="AF44" s="105"/>
     </row>
-    <row r="45" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E45" s="103" t="s">
         <v>223</v>
       </c>
@@ -19056,21 +19056,21 @@
       <c r="AE45" s="104"/>
       <c r="AF45" s="105"/>
     </row>
-    <row r="46" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="48" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D48" s="57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="50" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E50" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="52" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E52" s="62" t="s">
         <v>246</v>
       </c>
@@ -19104,14 +19104,14 @@
       <c r="AE52" s="65"/>
       <c r="AF52" s="66"/>
     </row>
-    <row r="53" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="54" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E54" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="56" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E56" s="62" t="s">
         <v>226</v>
       </c>
@@ -19145,7 +19145,7 @@
       <c r="AE56" s="65"/>
       <c r="AF56" s="66"/>
     </row>
-    <row r="57" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E57" s="62" t="s">
         <v>229</v>
       </c>
@@ -19179,32 +19179,32 @@
       <c r="AE57" s="67"/>
       <c r="AF57" s="68"/>
     </row>
-    <row r="58" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="59" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="60" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D62" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E64" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F66" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F67" s="62" t="s">
         <v>226</v>
       </c>
@@ -19238,7 +19238,7 @@
       <c r="AF67" s="65"/>
       <c r="AG67" s="66"/>
     </row>
-    <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
@@ -19272,7 +19272,7 @@
       <c r="AF68" s="65"/>
       <c r="AG68" s="66"/>
     </row>
-    <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F69" s="119"/>
       <c r="G69" s="120"/>
       <c r="H69" s="120"/>
@@ -19304,7 +19304,7 @@
       <c r="AF69" s="65"/>
       <c r="AG69" s="66"/>
     </row>
-    <row r="70" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F70" s="62" t="s">
         <v>229</v>
       </c>
@@ -19338,7 +19338,7 @@
       <c r="AF70" s="67"/>
       <c r="AG70" s="68"/>
     </row>
-    <row r="71" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F71" s="62" t="s">
         <v>230</v>
       </c>
@@ -19372,19 +19372,19 @@
       <c r="AF71" s="67"/>
       <c r="AG71" s="68"/>
     </row>
-    <row r="72" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E73" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F75" s="57" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F76" s="62" t="s">
         <v>226</v>
       </c>
@@ -19418,7 +19418,7 @@
       <c r="AF76" s="65"/>
       <c r="AG76" s="66"/>
     </row>
-    <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
@@ -19452,7 +19452,7 @@
       <c r="AF77" s="65"/>
       <c r="AG77" s="66"/>
     </row>
-    <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F78" s="119"/>
       <c r="G78" s="120"/>
       <c r="H78" s="120"/>
@@ -19484,7 +19484,7 @@
       <c r="AF78" s="65"/>
       <c r="AG78" s="66"/>
     </row>
-    <row r="79" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F79" s="62" t="s">
         <v>229</v>
       </c>
@@ -19518,7 +19518,7 @@
       <c r="AF79" s="67"/>
       <c r="AG79" s="68"/>
     </row>
-    <row r="80" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F80" s="62" t="s">
         <v>230</v>
       </c>
@@ -19552,24 +19552,24 @@
       <c r="AF80" s="67"/>
       <c r="AG80" s="68"/>
     </row>
-    <row r="81" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="82" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D82" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E84" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="87" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="88" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="89" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="86" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="88" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="AG1:AN1"/>
@@ -19611,9 +19611,9 @@
       <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
@@ -19676,7 +19676,7 @@
       <c r="AU1" s="86"/>
       <c r="AV1" s="86"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -19741,7 +19741,7 @@
       <c r="AU2" s="80"/>
       <c r="AV2" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -19791,19 +19791,19 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C5" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D7" s="57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E9" s="57" t="s">
         <v>26</v>
       </c>
@@ -19811,29 +19811,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E10" s="57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D12" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E14" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AA15" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E16" s="57" t="s">
         <v>27</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E17" s="57" t="s">
         <v>28</v>
       </c>
@@ -19849,8 +19849,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D19" s="71" t="s">
         <v>40</v>
       </c>
@@ -19893,7 +19893,7 @@
       <c r="AO19" s="72"/>
       <c r="AP19" s="73"/>
     </row>
-    <row r="20" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -19910,7 +19910,7 @@
       </c>
       <c r="AP20" s="28"/>
     </row>
-    <row r="21" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -19927,7 +19927,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D22" s="74"/>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
@@ -19968,60 +19968,60 @@
       <c r="AO22" s="29"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D24" s="57" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E26" s="57" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E27" s="57" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C29" s="57" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D31" s="57" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:42" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E33" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E34" s="57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D36" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E38" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
@@ -20055,7 +20055,7 @@
       <c r="AE40" s="111"/>
       <c r="AF40" s="112"/>
     </row>
-    <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
         <v>219</v>
       </c>
@@ -20089,7 +20089,7 @@
       <c r="AE41" s="104"/>
       <c r="AF41" s="105"/>
     </row>
-    <row r="42" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E42" s="103" t="s">
         <v>220</v>
       </c>
@@ -20123,7 +20123,7 @@
       <c r="AE42" s="114"/>
       <c r="AF42" s="115"/>
     </row>
-    <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
         <v>221</v>
       </c>
@@ -20157,7 +20157,7 @@
       <c r="AE43" s="114"/>
       <c r="AF43" s="115"/>
     </row>
-    <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
         <v>222</v>
       </c>
@@ -20191,7 +20191,7 @@
       <c r="AE44" s="104"/>
       <c r="AF44" s="105"/>
     </row>
-    <row r="45" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E45" s="103" t="s">
         <v>223</v>
       </c>
@@ -20225,21 +20225,21 @@
       <c r="AE45" s="104"/>
       <c r="AF45" s="105"/>
     </row>
-    <row r="46" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="48" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D48" s="57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="50" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E50" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="52" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E52" s="62" t="s">
         <v>246</v>
       </c>
@@ -20273,14 +20273,14 @@
       <c r="AE52" s="65"/>
       <c r="AF52" s="66"/>
     </row>
-    <row r="53" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="54" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E54" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="56" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E56" s="62" t="s">
         <v>226</v>
       </c>
@@ -20314,7 +20314,7 @@
       <c r="AE56" s="65"/>
       <c r="AF56" s="66"/>
     </row>
-    <row r="57" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E57" s="62" t="s">
         <v>229</v>
       </c>
@@ -20348,32 +20348,32 @@
       <c r="AE57" s="67"/>
       <c r="AF57" s="68"/>
     </row>
-    <row r="58" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="59" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="60" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D62" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="3:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E64" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F66" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F67" s="62" t="s">
         <v>226</v>
       </c>
@@ -20407,7 +20407,7 @@
       <c r="AF67" s="65"/>
       <c r="AG67" s="66"/>
     </row>
-    <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
@@ -20441,7 +20441,7 @@
       <c r="AF68" s="65"/>
       <c r="AG68" s="66"/>
     </row>
-    <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F69" s="119"/>
       <c r="G69" s="120"/>
       <c r="H69" s="120"/>
@@ -20473,7 +20473,7 @@
       <c r="AF69" s="65"/>
       <c r="AG69" s="66"/>
     </row>
-    <row r="70" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F70" s="62" t="s">
         <v>229</v>
       </c>
@@ -20507,7 +20507,7 @@
       <c r="AF70" s="67"/>
       <c r="AG70" s="68"/>
     </row>
-    <row r="71" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F71" s="62" t="s">
         <v>230</v>
       </c>
@@ -20541,19 +20541,19 @@
       <c r="AF71" s="67"/>
       <c r="AG71" s="68"/>
     </row>
-    <row r="72" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E73" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F75" s="57" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F76" s="62" t="s">
         <v>226</v>
       </c>
@@ -20587,7 +20587,7 @@
       <c r="AF76" s="65"/>
       <c r="AG76" s="66"/>
     </row>
-    <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
@@ -20621,7 +20621,7 @@
       <c r="AF77" s="65"/>
       <c r="AG77" s="66"/>
     </row>
-    <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F78" s="119"/>
       <c r="G78" s="120"/>
       <c r="H78" s="120"/>
@@ -20653,7 +20653,7 @@
       <c r="AF78" s="65"/>
       <c r="AG78" s="66"/>
     </row>
-    <row r="79" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F79" s="62" t="s">
         <v>229</v>
       </c>
@@ -20687,7 +20687,7 @@
       <c r="AF79" s="67"/>
       <c r="AG79" s="68"/>
     </row>
-    <row r="80" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F80" s="62" t="s">
         <v>230</v>
       </c>
@@ -20721,24 +20721,24 @@
       <c r="AF80" s="67"/>
       <c r="AG80" s="68"/>
     </row>
-    <row r="81" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="82" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D82" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E84" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="87" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="88" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="89" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="86" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="88" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="AG1:AN1"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52505C-AAAE-4CF5-B79F-CA9DE19DE62D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66387EDA-CF30-409F-B34E-F12C2FC3EBE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30960" yWindow="0" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -2511,6 +2511,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2541,45 +2580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2604,24 +2604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2638,6 +2620,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7475,132 +7475,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -8312,132 +8312,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -9044,215 +9044,215 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88" t="str">
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88" t="str">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="93" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="96" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="89" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="89" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="87"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="79">
+      <c r="A5" s="92">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9262,52 +9262,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="92" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="92" t="s">
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="83"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="78"/>
@@ -9318,46 +9318,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="83"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="78"/>
@@ -9368,46 +9368,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="83"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
@@ -9418,46 +9418,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="94"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="83"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="78"/>
@@ -9468,46 +9468,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="94"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="83"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="78"/>
@@ -9518,46 +9518,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="94"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="83"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
@@ -9568,46 +9568,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="94"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="83"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="78"/>
@@ -9618,46 +9618,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="94"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="83"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="78"/>
@@ -9668,46 +9668,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="83"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="78"/>
@@ -9718,46 +9718,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="83"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="78"/>
@@ -9768,46 +9768,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="83"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="78"/>
@@ -9818,78 +9818,71 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -9906,28 +9899,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9940,138 +9940,138 @@
   <dimension ref="A1:AV125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+      <selection activeCell="U120" sqref="U120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="24"/>
@@ -15550,132 +15550,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
@@ -16500,6 +16500,40 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -16516,40 +16550,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16569,132 +16569,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
@@ -17175,17 +17175,62 @@
     <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -17202,62 +17247,17 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17276,132 +17276,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -17684,38 +17684,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -17764,26 +17764,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -17798,26 +17798,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="50" t="s">
@@ -18070,18 +18070,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -18104,16 +18104,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -18250,18 +18250,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -18284,16 +18284,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -18403,19 +18403,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -18427,6 +18414,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18445,132 +18445,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -18853,38 +18853,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -18933,26 +18933,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -18967,26 +18967,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
@@ -19239,18 +19239,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -19273,16 +19273,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -19419,18 +19419,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -19453,16 +19453,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -19572,13 +19572,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -19589,13 +19589,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19614,132 +19614,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -20022,38 +20022,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -20102,26 +20102,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -20136,26 +20136,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
@@ -20408,18 +20408,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -20442,16 +20442,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -20588,18 +20588,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -20622,16 +20622,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -20741,13 +20741,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20758,13 +20758,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66387EDA-CF30-409F-B34E-F12C2FC3EBE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34443C-3096-4162-8E30-41EBFDAA65D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="0" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="33450" yWindow="3165" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面項目!$A$1:$AV$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面表示時!$A$1:$AV$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="284">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1751,6 +1751,13 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル関数</t>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2511,45 +2518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2580,6 +2548,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2604,6 +2611,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2620,24 +2645,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6046,6 +6053,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161161</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>199375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0095F2A-136F-46FF-97E4-9D91FBA4446B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="30537150"/>
+          <a:ext cx="6114286" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7475,132 +7526,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -8312,132 +8363,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -9044,215 +9095,215 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101" t="str">
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101" t="str">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="80" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="101"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="88" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="85" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="85" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="87"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="92">
+      <c r="A5" s="79">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9262,52 +9313,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="81" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="83"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="94"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="78"/>
@@ -9318,46 +9369,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="83"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="78"/>
@@ -9368,46 +9419,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="83"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
@@ -9418,46 +9469,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="83"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="94"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="78"/>
@@ -9468,46 +9519,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="83"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="94"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="78"/>
@@ -9518,46 +9569,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="83"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="94"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
@@ -9568,46 +9619,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="83"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="94"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="78"/>
@@ -9618,46 +9669,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="83"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="94"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="78"/>
@@ -9668,46 +9719,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="83"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="94"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="78"/>
@@ -9718,46 +9769,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="83"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="94"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="78"/>
@@ -9768,46 +9819,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="83"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="78"/>
@@ -9818,49 +9869,100 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -9877,57 +9979,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9937,141 +9988,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
-  <dimension ref="A1:AV125"/>
+  <dimension ref="A1:AV127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U120" sqref="U120"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW133" sqref="AW133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="24"/>
@@ -15020,6 +15071,11 @@
         <v>280</v>
       </c>
     </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B127" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -15550,132 +15606,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
@@ -16500,18 +16556,28 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -16528,28 +16594,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16569,132 +16625,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
@@ -17175,17 +17231,62 @@
     <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -17202,62 +17303,17 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17276,132 +17332,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -17684,38 +17740,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -17764,26 +17820,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -17798,26 +17854,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="50" t="s">
@@ -18070,18 +18126,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -18104,16 +18160,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -18250,18 +18306,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -18284,16 +18340,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -18403,6 +18459,19 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -18414,19 +18483,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18445,132 +18501,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -18853,38 +18909,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -18933,26 +18989,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -18967,26 +19023,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
@@ -19239,18 +19295,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -19273,16 +19329,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -19419,18 +19475,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -19453,16 +19509,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -19572,13 +19628,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -19589,13 +19645,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19614,132 +19670,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -20022,38 +20078,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -20102,26 +20158,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -20136,26 +20192,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
@@ -20408,18 +20464,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -20442,16 +20498,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -20588,18 +20644,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -20622,16 +20678,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -20741,13 +20797,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20758,13 +20814,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD020_メインメニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34443C-3096-4162-8E30-41EBFDAA65D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6957E6A-1CC6-410C-97D7-0B3E9FF3CDB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="3165" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="35970" yWindow="1275" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -2518,6 +2518,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2548,45 +2587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2611,24 +2611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2645,6 +2627,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7526,132 +7526,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -8363,132 +8363,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -9095,215 +9095,215 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88" t="str">
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88" t="str">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="93" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="96" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="89" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="89" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="87"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="79">
+      <c r="A5" s="92">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9313,52 +9313,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="92" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="92" t="s">
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="83"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A6" s="78"/>
@@ -9369,46 +9369,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="83"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A7" s="78"/>
@@ -9419,46 +9419,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="83"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
@@ -9469,46 +9469,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="94"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="83"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A9" s="78"/>
@@ -9519,46 +9519,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="94"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="83"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A10" s="78"/>
@@ -9569,46 +9569,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="94"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="83"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
@@ -9619,46 +9619,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="94"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="83"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A12" s="78"/>
@@ -9669,46 +9669,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="94"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="83"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A13" s="78"/>
@@ -9719,46 +9719,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="83"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A14" s="78"/>
@@ -9769,46 +9769,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="83"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A15" s="78"/>
@@ -9819,46 +9819,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="83"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A16" s="78"/>
@@ -9869,78 +9869,71 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -9957,28 +9950,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9990,139 +9990,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
   <dimension ref="A1:AV127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW133" sqref="AW133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="24"/>
@@ -15101,8 +15101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15606,132 +15606,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
@@ -16556,6 +16556,40 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -16572,40 +16606,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16625,132 +16625,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
@@ -17231,17 +17231,62 @@
     <row r="15" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -17258,62 +17303,17 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17332,132 +17332,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -17740,38 +17740,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -17820,26 +17820,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -17854,26 +17854,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="50" t="s">
@@ -18126,18 +18126,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -18160,16 +18160,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -18306,18 +18306,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -18340,16 +18340,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -18459,19 +18459,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -18483,6 +18470,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18501,132 +18501,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -18909,38 +18909,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -18989,26 +18989,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -19023,26 +19023,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
@@ -19295,18 +19295,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -19329,16 +19329,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -19475,18 +19475,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -19509,16 +19509,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -19628,13 +19628,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -19645,13 +19645,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19670,132 +19670,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -20078,38 +20078,38 @@
     </row>
     <row r="39" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E41" s="103" t="s">
@@ -20158,26 +20158,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E43" s="103" t="s">
@@ -20192,26 +20192,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="58" t="s">
@@ -20464,18 +20464,18 @@
       <c r="AG67" s="66"/>
     </row>
     <row r="68" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="69" t="s">
         <v>240</v>
       </c>
@@ -20498,16 +20498,16 @@
       <c r="AG68" s="66"/>
     </row>
     <row r="69" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="69" t="s">
         <v>243</v>
       </c>
@@ -20644,18 +20644,18 @@
       <c r="AG76" s="66"/>
     </row>
     <row r="77" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="69" t="s">
         <v>239</v>
       </c>
@@ -20678,16 +20678,16 @@
       <c r="AG77" s="66"/>
     </row>
     <row r="78" spans="5:33" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="69" t="s">
         <v>243</v>
       </c>
@@ -20797,13 +20797,13 @@
     <row r="90" spans="4:5" s="57" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20814,13 +20814,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
